--- a/uploads/redeem-details.xlsx
+++ b/uploads/redeem-details.xlsx
@@ -427,13 +427,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>DIWALI50</v>
+        <v>HOLI50</v>
       </c>
       <c r="C2" t="str">
         <v>Unknown</v>
       </c>
       <c r="D2" t="str">
-        <v>8/2/2025, 11:41:13 am</v>
+        <v>8/2/2025, 11:37:42 am</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -447,13 +447,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>DIWALI50</v>
+        <v>HOLI50</v>
       </c>
       <c r="C3" t="str">
         <v>Unknown</v>
       </c>
       <c r="D3" t="str">
-        <v>8/2/2025, 11:46:17 am</v>
+        <v>8/2/2025, 11:38:21 am</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -467,19 +467,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>DIWALI50</v>
+        <v>HOLI50</v>
       </c>
       <c r="C4" t="str">
-        <v>Unknown</v>
+        <v xml:space="preserve">Karelibagh Branch </v>
       </c>
       <c r="D4" t="str">
-        <v>8/2/2025, 12:32:44 pm</v>
+        <v>8/2/2025, 3:02:38 pm</v>
       </c>
       <c r="E4" t="str">
-        <v>ansh</v>
+        <v>Dev</v>
       </c>
       <c r="F4" t="str">
-        <v>9824409782</v>
+        <v>9898561251</v>
       </c>
     </row>
     <row r="5">
@@ -487,19 +487,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>DIWALI50</v>
+        <v>HOLI50</v>
       </c>
       <c r="C5" t="str">
-        <v>Unknown</v>
+        <v xml:space="preserve">Karelibagh Branch </v>
       </c>
       <c r="D5" t="str">
-        <v>8/2/2025, 12:44:31 pm</v>
+        <v>8/2/2025, 3:03:07 pm</v>
       </c>
       <c r="E5" t="str">
-        <v>poojan</v>
+        <v>Poojan</v>
       </c>
       <c r="F5" t="str">
-        <v>9824409782</v>
+        <v>8160754098</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/redeem-details.xlsx
+++ b/uploads/redeem-details.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,16 +430,16 @@
         <v>HOLI50</v>
       </c>
       <c r="C2" t="str">
-        <v>Unknown</v>
+        <v>Manjalpur Branch</v>
       </c>
       <c r="D2" t="str">
-        <v>8/2/2025, 11:37:42 am</v>
+        <v>18/2/2025, 2:02:14 pm</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>Alice Wonderland</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>9876543210</v>
       </c>
     </row>
     <row r="3">
@@ -450,16 +450,16 @@
         <v>HOLI50</v>
       </c>
       <c r="C3" t="str">
-        <v>Unknown</v>
+        <v>Manjalpur Branch</v>
       </c>
       <c r="D3" t="str">
-        <v>8/2/2025, 11:38:21 am</v>
+        <v>18/2/2025, 2:07:26 pm</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>Alice Wonderland</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>9876543210</v>
       </c>
     </row>
     <row r="4">
@@ -470,16 +470,16 @@
         <v>HOLI50</v>
       </c>
       <c r="C4" t="str">
-        <v xml:space="preserve">Karelibagh Branch </v>
+        <v>Manjalpur Branch</v>
       </c>
       <c r="D4" t="str">
-        <v>8/2/2025, 3:02:38 pm</v>
+        <v>18/2/2025, 2:21:23 pm</v>
       </c>
       <c r="E4" t="str">
-        <v>Dev</v>
+        <v>Alice Wonderland</v>
       </c>
       <c r="F4" t="str">
-        <v>9898561251</v>
+        <v>9876543210</v>
       </c>
     </row>
     <row r="5">
@@ -490,21 +490,1001 @@
         <v>HOLI50</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve">Karelibagh Branch </v>
+        <v>Manjalpur Branch</v>
       </c>
       <c r="D5" t="str">
-        <v>8/2/2025, 3:03:07 pm</v>
+        <v>18/2/2025, 2:21:41 pm</v>
       </c>
       <c r="E5" t="str">
-        <v>Poojan</v>
+        <v>Alice Wonderland</v>
       </c>
       <c r="F5" t="str">
-        <v>8160754098</v>
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D6" t="str">
+        <v>18/2/2025, 2:23:56 pm</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F6" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D7" t="str">
+        <v>18/2/2025, 3:03:50 pm</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F7" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D8" t="str">
+        <v>18/2/2025, 3:09:58 pm</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F8" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D9" t="str">
+        <v>18/2/2025, 3:19:29 pm</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F9" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D10" t="str">
+        <v>18/2/2025, 3:25:02 pm</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F10" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D11" t="str">
+        <v>18/2/2025, 3:51:36 pm</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F11" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D12" t="str">
+        <v>18/2/2025, 4:04:50 pm</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F12" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D13" t="str">
+        <v>18/2/2025, 4:06:35 pm</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F13" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D14" t="str">
+        <v>18/2/2025, 4:10:47 pm</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F14" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D15" t="str">
+        <v>18/2/2025, 4:11:55 pm</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F15" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D16" t="str">
+        <v>18/2/2025, 4:18:25 pm</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F16" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D17" t="str">
+        <v>18/2/2025, 4:19:59 pm</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F17" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D18" t="str">
+        <v>18/2/2025, 4:20:45 pm</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F18" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D19" t="str">
+        <v>18/2/2025, 4:21:19 pm</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F19" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D20" t="str">
+        <v>18/2/2025, 5:00:42 pm</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D21" t="str">
+        <v>18/2/2025, 5:24:23 pm</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F21" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D22" t="str">
+        <v>18/2/2025, 5:27:54 pm</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F22" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D23" t="str">
+        <v>18/2/2025, 5:29:20 pm</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F23" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D24" t="str">
+        <v>18/2/2025, 5:35:55 pm</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F24" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D25" t="str">
+        <v>18/2/2025, 6:01:18 pm</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F25" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D26" t="str">
+        <v>18/2/2025, 6:02:16 pm</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F26" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D27" t="str">
+        <v>19/2/2025, 10:18:40 am</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F27" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D28" t="str">
+        <v>19/2/2025, 10:47:18 am</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F28" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D29" t="str">
+        <v>19/2/2025, 10:57:58 am</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F29" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D30" t="str">
+        <v>19/2/2025, 11:10:19 am</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F30" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D31" t="str">
+        <v>19/2/2025, 11:13:10 am</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F31" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D32" t="str">
+        <v>19/2/2025, 11:15:59 am</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F32" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D33" t="str">
+        <v>19/2/2025, 11:53:34 am</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F33" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D34" t="str">
+        <v>19/2/2025, 12:08:56 pm</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F34" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D35" t="str">
+        <v>19/2/2025, 12:35:53 pm</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F35" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D36" t="str">
+        <v>19/2/2025, 12:36:19 pm</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F36" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D37" t="str">
+        <v>19/2/2025, 1:58:43 pm</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Alice Wonderland</v>
+      </c>
+      <c r="F37" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Waghodia Branch</v>
+      </c>
+      <c r="D38" t="str">
+        <v>20/2/2025, 12:09:40 pm</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Waghodia Branch</v>
+      </c>
+      <c r="D39" t="str">
+        <v>20/2/2025, 12:13:07 pm</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Waghodia Branch</v>
+      </c>
+      <c r="D40" t="str">
+        <v>20/2/2025, 12:15:00 pm</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Waghodia Branch</v>
+      </c>
+      <c r="D41" t="str">
+        <v>20/2/2025, 2:11:24 pm</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Waghodia Branch</v>
+      </c>
+      <c r="D42" t="str">
+        <v>20/2/2025, 2:11:25 pm</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Waghodia Branch</v>
+      </c>
+      <c r="D43" t="str">
+        <v>20/2/2025, 2:13:14 pm</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D44" t="str">
+        <v>20/2/2025, 3:05:58 pm</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D45" t="str">
+        <v>20/2/2025, 3:06:25 pm</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D46" t="str">
+        <v>20/2/2025, 3:09:49 pm</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D47" t="str">
+        <v>20/2/2025, 3:10:19 pm</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D48" t="str">
+        <v>20/2/2025, 5:04:38 pm</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D49" t="str">
+        <v>20/2/2025, 5:12:53 pm</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F49" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D50" t="str">
+        <v>20/2/2025, 5:20:21 pm</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F50" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D51" t="str">
+        <v>20/2/2025, 6:20:15 pm</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F51" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D52" t="str">
+        <v>20/2/2025, 6:21:41 pm</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F52" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D53" t="str">
+        <v>21/2/2025, 12:05:08 pm</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F53" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>HOLI50</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Manjalpur Branch</v>
+      </c>
+      <c r="D54" t="str">
+        <v>21/2/2025, 12:06:01 pm</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F54" t="str">
+        <v>9876543210</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F54"/>
   </ignoredErrors>
 </worksheet>
 </file>